--- a/VACCINATION_MANAGEMENT/src/SQL/Data/PERSON.xlsx
+++ b/VACCINATION_MANAGEMENT/src/SQL/Data/PERSON.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Project Submission\IS201.M21_20520418_20521252_20521720_20521890\Huong dan cai dat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Projects\VACCINATION\VACCINATION_MANAGEMENT\src\SQL\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="146">
   <si>
     <t>ID</t>
   </si>
@@ -129,6 +129,339 @@
   </si>
   <si>
     <t>lychthac@gmail.com</t>
+  </si>
+  <si>
+    <t>Lê Uyên</t>
+  </si>
+  <si>
+    <t>Bùi Tuấn Tài</t>
+  </si>
+  <si>
+    <t>Trần Anh Thư</t>
+  </si>
+  <si>
+    <t>ĐỖ THỊ CÚC HOA</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Chí Thanh</t>
+  </si>
+  <si>
+    <t>Đoàn Đông Phong</t>
+  </si>
+  <si>
+    <t>Trần Lê Anh Thư</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Ngân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Hiền</t>
+  </si>
+  <si>
+    <t>Dương Đình Thảo Nhung</t>
+  </si>
+  <si>
+    <t>Bùi Thanh Phong</t>
+  </si>
+  <si>
+    <t>Dương Đình Thảo Quyên</t>
+  </si>
+  <si>
+    <t>Dương Đình Chuyên</t>
+  </si>
+  <si>
+    <t>Đinh Thị Thư</t>
+  </si>
+  <si>
+    <t>Trịnh Gia Huy</t>
+  </si>
+  <si>
+    <t>Trương Thị Hoài Sương</t>
+  </si>
+  <si>
+    <t>272826216</t>
+  </si>
+  <si>
+    <t>272697035</t>
+  </si>
+  <si>
+    <t>072302002734</t>
+  </si>
+  <si>
+    <t>272272289</t>
+  </si>
+  <si>
+    <t>082203004408</t>
+  </si>
+  <si>
+    <t>281332992</t>
+  </si>
+  <si>
+    <t>272893719</t>
+  </si>
+  <si>
+    <t>312567854</t>
+  </si>
+  <si>
+    <t>272867563</t>
+  </si>
+  <si>
+    <t>272863413</t>
+  </si>
+  <si>
+    <t>272863193</t>
+  </si>
+  <si>
+    <t>272863183</t>
+  </si>
+  <si>
+    <t>272496184</t>
+  </si>
+  <si>
+    <t>284991638</t>
+  </si>
+  <si>
+    <t>281352653</t>
+  </si>
+  <si>
+    <t>044303003709</t>
+  </si>
+  <si>
+    <t>272893645</t>
+  </si>
+  <si>
+    <t>Tây Ninh</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>Tiền Giang</t>
+  </si>
+  <si>
+    <t>Nghệ An</t>
+  </si>
+  <si>
+    <t>Quảng Trị</t>
+  </si>
+  <si>
+    <t>Quảng Nam</t>
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t>Quảng ngãi</t>
+  </si>
+  <si>
+    <t>Quảng Bình</t>
+  </si>
+  <si>
+    <t>Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Đắk Lắk</t>
+  </si>
+  <si>
+    <t>Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t>Thuận An</t>
+  </si>
+  <si>
+    <t>Gò Vấp</t>
+  </si>
+  <si>
+    <t>Thủ Đức</t>
+  </si>
+  <si>
+    <t>Krông Ana</t>
+  </si>
+  <si>
+    <t>Cẩm mỹ</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Huế</t>
+  </si>
+  <si>
+    <t>Cầu Kho</t>
+  </si>
+  <si>
+    <t>Lái Thiêu</t>
+  </si>
+  <si>
+    <t>Linh Trung</t>
+  </si>
+  <si>
+    <t>Dray Sáp</t>
+  </si>
+  <si>
+    <t>Lâm san</t>
+  </si>
+  <si>
+    <t>An Phú Đông</t>
+  </si>
+  <si>
+    <t>Phường phường đúc</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>233/7 Nguyễn Trãi</t>
+  </si>
+  <si>
+    <t>284/7/12</t>
+  </si>
+  <si>
+    <t>37/54</t>
+  </si>
+  <si>
+    <t>143, đường 72</t>
+  </si>
+  <si>
+    <t>138/19 Nguyễn Trãi</t>
+  </si>
+  <si>
+    <t>36 Phan Chu Trinh</t>
+  </si>
+  <si>
+    <t>818 Nguyễn Kiệm</t>
+  </si>
+  <si>
+    <t>KTX khu A, khu phố 6</t>
+  </si>
+  <si>
+    <t>Ktx khu A khu phố 6</t>
+  </si>
+  <si>
+    <t>Tổ 14, ấp 1, Sông Ray , Cẩm Mỹ, Đồng Nai</t>
+  </si>
+  <si>
+    <t>Thôn Đồng Tâm, Draysáp, Krông Ana, Đắk Lắk</t>
+  </si>
+  <si>
+    <t>Tổ 14, ấp 1, xã Sông Ray, huyện cẩm mỹ, tỉnh đồng nai</t>
+  </si>
+  <si>
+    <t>Tổ 1 ấp 5 xã Lâm San Cẩm Mỹ Đồng Nai</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>257 bùi thị xuân</t>
+  </si>
+  <si>
+    <t>lehoanguyen2402@gmail.com</t>
+  </si>
+  <si>
+    <t>buiquangdung1603@gmail.com</t>
+  </si>
+  <si>
+    <t>trananhthu61298@gmail.com</t>
+  </si>
+  <si>
+    <t>Dothicuchoa123@gmail.com</t>
+  </si>
+  <si>
+    <t>tn13046@gmail.com</t>
+  </si>
+  <si>
+    <t>phuongdong2262@gmail.com</t>
+  </si>
+  <si>
+    <t>Tranleanhthu0119@gmail.com</t>
+  </si>
+  <si>
+    <t>Thanh@gmail.com</t>
+  </si>
+  <si>
+    <t>nguyenthithuhien29042002@gmail.com</t>
+  </si>
+  <si>
+    <t>nhungduong24032002@gmail.com</t>
+  </si>
+  <si>
+    <t>Phong1210@gmail.com</t>
+  </si>
+  <si>
+    <t>Quyen2008@gmail.com</t>
+  </si>
+  <si>
+    <t>Chuyen0101@gmail.com</t>
+  </si>
+  <si>
+    <t>giahuy@gmail.com</t>
+  </si>
+  <si>
+    <t>truonghoaisuong643@gmail.com</t>
+  </si>
+  <si>
+    <t>cdlthac@gmail.com</t>
+  </si>
+  <si>
+    <t>0981819485</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>0392820179</t>
+  </si>
+  <si>
+    <t>0867675342</t>
+  </si>
+  <si>
+    <t>0586862644</t>
+  </si>
+  <si>
+    <t>0962306647</t>
+  </si>
+  <si>
+    <t>0376556982</t>
+  </si>
+  <si>
+    <t>0849315458</t>
+  </si>
+  <si>
+    <t>0578996644</t>
+  </si>
+  <si>
+    <t>0978910448</t>
+  </si>
+  <si>
+    <t>0822920128</t>
+  </si>
+  <si>
+    <t>0343279844</t>
+  </si>
+  <si>
+    <t>0388397225</t>
+  </si>
+  <si>
+    <t>0965668962</t>
+  </si>
+  <si>
+    <t>0941516866</t>
+  </si>
+  <si>
+    <t>0904784683</t>
+  </si>
+  <si>
+    <t>0395309823</t>
+  </si>
+  <si>
+    <t>01-JAN-2002</t>
   </si>
 </sst>
 </file>
@@ -173,10 +506,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -458,16 +792,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -588,6 +930,595 @@
       </c>
       <c r="L3" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
